--- a/document/测试报告.xlsx
+++ b/document/测试报告.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>529.265s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>254.953s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -404,6 +416,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -462,6 +477,70 @@
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/document/测试报告.xlsx
+++ b/document/测试报告.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,22 @@
   </si>
   <si>
     <t>254.953s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于list+vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110.176s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于list+list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108.275s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,18 +420,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="16.546875" customWidth="1"/>
+    <col min="1" max="9" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -423,7 +439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -439,7 +455,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -447,7 +463,7 @@
         <v>6483</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -455,7 +471,7 @@
         <v>14951</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -463,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -471,7 +487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -479,7 +495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -487,7 +503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -503,7 +519,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -511,7 +527,7 @@
         <v>6483</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -519,7 +535,7 @@
         <v>14951</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -527,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -535,12 +551,140 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>14951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3">
+        <v>14951</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/document/测试报告.xlsx
+++ b/document/测试报告.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>108.275s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40W样本中10W样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48684.8 s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -431,7 +443,7 @@
     <col min="1" max="9" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -439,7 +451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -455,7 +467,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -463,7 +475,7 @@
         <v>6483</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -471,7 +483,7 @@
         <v>14951</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -479,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -487,7 +499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -495,71 +507,95 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>139181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="3">
         <v>6483</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="3">
         <v>14951</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>220487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -567,7 +603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -583,7 +619,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -591,7 +627,7 @@
         <v>6483</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -599,7 +635,7 @@
         <v>14951</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -607,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -615,7 +651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -623,7 +659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -631,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>

--- a/document/测试报告.xlsx
+++ b/document/测试报告.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>529.265s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基于vector</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,35 +61,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>254.953s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基于list+vector</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>110.176s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基于list+list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>108.275s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>40W样本中10W样本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>48684.8 s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40W样本中2W样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40W样本中5W样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40W样本中10W样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.78*base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.84*base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215.171*base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于list+list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_weight=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_weight=5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -445,10 +485,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -456,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,21 +541,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>529.26499999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -523,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -584,143 +624,344 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>254.953</v>
+      </c>
+      <c r="C18" s="3">
+        <v>48684.800000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>31540</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="3">
         <v>6483</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="3">
         <v>14951</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <v>46918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="3">
+        <v>110.176</v>
+      </c>
+      <c r="C28">
+        <v>1079.1099999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="3">
+        <v>31540</v>
+      </c>
+      <c r="D32">
+        <v>73421</v>
+      </c>
+      <c r="E32">
+        <v>139180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="3">
         <v>6483</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D33">
+        <v>50000</v>
+      </c>
+      <c r="E33">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="3">
         <v>14951</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="3">
+        <v>46918</v>
+      </c>
+      <c r="D34">
+        <v>113378</v>
+      </c>
+      <c r="E34">
+        <v>220487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="3">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="3">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="3">
+        <v>108.27500000000001</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1060.27</v>
+      </c>
+      <c r="D37">
+        <v>6154.52</v>
+      </c>
+      <c r="E37">
+        <v>23297.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C43" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6483</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3">
+        <v>15307</v>
+      </c>
+      <c r="C45" s="3">
+        <v>14951</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3">
         <v>16</v>
+      </c>
+      <c r="C47" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="3">
+        <v>106.95</v>
+      </c>
+      <c r="C48" s="3">
+        <v>108.27500000000001</v>
       </c>
     </row>
   </sheetData>
